--- a/code/SystemFile/EXCEL导入数据模板.xlsx
+++ b/code/SystemFile/EXCEL导入数据模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>资产名称</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>所在部门</t>
+  </si>
+  <si>
+    <t>存放地点</t>
   </si>
   <si>
     <t>使用人</t>
@@ -80,9 +83,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -112,14 +115,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -134,25 +129,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,15 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,9 +159,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +181,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -212,8 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,23 +212,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,36 +260,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,7 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,127 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +451,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,81 +547,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,145 +559,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,20 +1026,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.125" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="19" max="19" width="13.125" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1061,10 +1064,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1079,7 +1082,7 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1093,6 +1096,9 @@
       </c>
       <c r="S1" t="s">
         <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/code/SystemFile/EXCEL导入数据模板.xlsx
+++ b/code/SystemFile/EXCEL导入数据模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="18840" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>资产名称</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>所在部门</t>
-  </si>
-  <si>
-    <t>存放地点</t>
   </si>
   <si>
     <t>使用人</t>
@@ -83,9 +80,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -115,6 +112,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -129,9 +134,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,7 +166,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,15 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,32 +204,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,38 +243,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,31 +257,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,151 +413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,80 +448,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,7 +470,81 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,20 +1023,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.125" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="18" max="18" width="13.125" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1064,10 +1061,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1082,7 +1079,7 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1096,9 +1093,6 @@
       </c>
       <c r="S1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
